--- a/相关文档/zsblogs数据库设计.xlsx
+++ b/相关文档/zsblogs数据库设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="128">
   <si>
     <t>users</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,10 +141,6 @@
   </si>
   <si>
     <t>标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>context</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -484,6 +480,98 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>invalid_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>atetime</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失效时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>令牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>archar</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>用户i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>t</t>
     </r>
@@ -516,98 +604,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>invalid_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>atetime</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失效时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>用户i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>令牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>v</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>archar</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nt</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一</t>
+    <t>摘要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>summary</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -698,21 +706,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -731,7 +737,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -806,6 +812,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -841,6 +864,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1016,26 +1056,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="1"/>
+    <col min="6" max="6" width="15.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1055,7 +1095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1063,67 +1103,67 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G4" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
@@ -1131,12 +1171,12 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
@@ -1144,721 +1184,736 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="7" t="s">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B14" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="E15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C15" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>118</v>
-      </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C19" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B21" s="1" t="s">
-        <v>34</v>
-      </c>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C26" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B28" s="1" t="s">
-        <v>107</v>
-      </c>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C28" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C30" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>94</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G30" s="3"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C33" s="3" t="s">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D34" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B34" s="1" t="s">
+      <c r="E35" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B35" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C36" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>94</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C37" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="D37" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>104</v>
       </c>
       <c r="F37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C40" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="D41" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>104</v>
       </c>
       <c r="F42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C43" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="3" t="s">
+      <c r="G44" s="3"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C46" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="3" t="s">
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B47" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B48" s="1" t="s">
+      <c r="E48" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C49" s="3" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C50" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C52" s="3" t="s">
+      <c r="C53" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D53" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B53" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F53" s="3" t="s">
+      <c r="E54" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C55" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B54" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" s="3" t="s">
+      <c r="G55" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C56" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F54" s="3" t="s">
+      <c r="D56" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G54" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C55" s="3" t="s">
+      <c r="G56" s="7"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C57" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F55" s="3" t="s">
+      <c r="D57" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G55" s="6"/>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C56" s="3" t="s">
+      <c r="G57" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C58" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C57" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C58" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="D58" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C59" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C60" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C61" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C60" s="3" t="s">
+      <c r="D61" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G61" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F60" s="3" t="s">
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C63" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B64" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C64" s="3" t="s">
+      <c r="D65" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G65" s="3"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C66" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D66" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G66" s="3"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C67" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G64" s="3"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B65" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C65" s="3" t="s">
+      <c r="E67" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G67" s="3"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C68" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G65" s="3"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C66" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F66" s="3" t="s">
+      <c r="D68" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G66" s="3"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C67" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G67" s="3"/>
+      <c r="G68" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="G55:G56"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/相关文档/zsblogs数据库设计.xlsx
+++ b/相关文档/zsblogs数据库设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="135">
   <si>
     <t>users</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,10 +256,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>权限id序列</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -449,10 +445,6 @@
   </si>
   <si>
     <t>read</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>des</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -611,12 +603,84 @@
     <t>summary</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>introduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mg</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shide</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要影藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认0，不需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -636,6 +700,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -706,13 +777,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -737,7 +810,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -812,23 +885,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -864,23 +920,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1056,26 +1095,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1095,7 +1134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1103,67 +1142,67 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
@@ -1171,12 +1210,12 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
@@ -1184,44 +1223,44 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C11" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
@@ -1229,691 +1268,721 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C12" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C16" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="5" t="s">
+      <c r="E16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="E21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="3" t="s">
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F27" s="3" t="s">
+      <c r="E28" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" s="3" t="s">
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C29" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C30" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C31" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>93</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C33" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="F39" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D43" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="3" t="s">
+      <c r="E50" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C51" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C52" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B55" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C37" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="3" t="s">
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
+      <c r="E56" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C57" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G57" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C43" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G44" s="3"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="3" t="s">
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C58" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C49" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C50" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="3" t="s">
+      <c r="E58" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C59" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G54" s="3"/>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C55" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C56" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F56" s="3" t="s">
+      <c r="E59" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G56" s="7"/>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C57" s="3" t="s">
+      <c r="G59" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C60" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C58" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C59" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C60" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="D60" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C61" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>105</v>
-      </c>
+      <c r="E61" s="3"/>
       <c r="F61" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C62" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C63" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B66" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B67" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G61" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C65" s="3" t="s">
+      <c r="D67" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G67" s="3"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C68" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D68" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G68" s="3"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C69" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G65" s="3"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C66" s="3" t="s">
+      <c r="E69" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G69" s="3"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C70" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G66" s="3"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C67" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F67" s="3" t="s">
+      <c r="D70" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G67" s="3"/>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G68" s="3"/>
+      <c r="G70" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/相关文档/zsblogs数据库设计.xlsx
+++ b/相关文档/zsblogs数据库设计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="142">
   <si>
     <t>users</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,10 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,14 +149,6 @@
   </si>
   <si>
     <t>u_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bl_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>栏目id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -673,6 +661,70 @@
   </si>
   <si>
     <t>默认0，不需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栏目—博客关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bl_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栏目id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博客id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log_list_rel</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>l_order</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -777,7 +829,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -786,6 +838,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1096,16 +1150,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G70"/>
+  <dimension ref="B2:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
@@ -1142,10 +1196,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1155,16 +1209,16 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
@@ -1172,10 +1226,10 @@
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>12</v>
@@ -1187,10 +1241,10 @@
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>13</v>
@@ -1202,7 +1256,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
@@ -1215,7 +1269,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
@@ -1228,16 +1282,16 @@
         <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.15">
@@ -1245,10 +1299,10 @@
         <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>24</v>
@@ -1257,27 +1311,27 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C11" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C12" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G12" s="3"/>
     </row>
@@ -1290,54 +1344,54 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="F14" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C16" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G16" s="3"/>
     </row>
@@ -1363,26 +1417,26 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>20</v>
@@ -1394,10 +1448,10 @@
         <v>23</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>24</v>
@@ -1405,32 +1459,32 @@
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C24" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G24" s="3"/>
     </row>
@@ -1442,65 +1496,65 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C29" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C30" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G30" s="3"/>
     </row>
@@ -1509,480 +1563,535 @@
         <v>23</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B35" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B36" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C37" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C33" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D37" s="3" t="s">
+      <c r="D42" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C38" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C39" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C40" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G40" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="D43" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C44" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B44" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="F44" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G44" s="3"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C45" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G45" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C46" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G46" s="3"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B50" s="1" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G50" s="3"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C51" s="6" t="s">
-        <v>126</v>
+      <c r="C51" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="6" t="s">
-        <v>127</v>
+        <v>89</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="G51" s="3"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C52" s="3" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E52" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="F52" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>59</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G52" s="3"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G56" s="3"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C57" s="3" t="s">
-        <v>70</v>
+      <c r="C57" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>108</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G57" s="3"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C58" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D58" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B61" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G58" s="9"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C59" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C60" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C61" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B62" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C62" s="3" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="D62" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E62" s="3"/>
       <c r="F62" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>77</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G62" s="3"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C63" s="3" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>81</v>
+        <v>61</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C64" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G64" s="11"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C65" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B66" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="C66" s="3" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
+        <v>88</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B67" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="C67" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>102</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E67" s="3"/>
       <c r="F67" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G67" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C68" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>102</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E68" s="3"/>
       <c r="F68" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G68" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C69" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B72" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B73" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G73" s="3"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C74" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G74" s="3"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C75" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G69" s="3"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C70" s="3" t="s">
+      <c r="D75" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F75" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G70" s="3"/>
+      <c r="G75" s="3"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C76" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G76" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G63:G64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/相关文档/zsblogs数据库设计.xlsx
+++ b/相关文档/zsblogs数据库设计.xlsx
@@ -656,14 +656,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否需要影藏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认0，不需要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>栏目—博客关系表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -725,6 +717,14 @@
       </rPr>
       <t>l_order</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公开还是私有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：公开，1：私有</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1153,7 +1153,7 @@
   <dimension ref="B2:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C23" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>95</v>
@@ -1584,10 +1584,10 @@
         <v>129</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.15">
@@ -1599,13 +1599,13 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>91</v>
@@ -1615,34 +1615,34 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B36" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C36" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>99</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G36" s="7"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C37" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>99</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G37" s="7"/>
     </row>

--- a/相关文档/zsblogs数据库设计.xlsx
+++ b/相关文档/zsblogs数据库设计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="185">
   <si>
     <t>users</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -608,6 +608,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -628,6 +629,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -644,6 +646,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -725,6 +728,480 @@
   </si>
   <si>
     <t>0：公开，1：私有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pi文档表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_id用户id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pi接口参数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>所属a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pi的id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否必须</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>填写完成u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rl，http开头的</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ame</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ame</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>roject</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rl</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return_eg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ethod</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pi_doc</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d_id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pi_doc_parameter</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ype</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sMust</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>g</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>atetime</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>archar</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>archar</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:否，1：是，默认1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -758,6 +1235,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1150,10 +1628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G76"/>
+  <dimension ref="B2:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2089,6 +2567,264 @@
       </c>
       <c r="G76" s="3"/>
     </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B79" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G79" s="3"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B80" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G80" s="3"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C81" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G81" s="6"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C82" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G82" s="3"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C83" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G83" s="3"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C84" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E84" s="3"/>
+      <c r="F84" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C85" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E85" s="3"/>
+      <c r="F85" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G85" s="3"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C86" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C87" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G87" s="3"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F88" s="9"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F89" s="9"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B91" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G91" s="3"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B92" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G92" s="3"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C93" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G93" s="3"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C94" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G94" s="3"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C95" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C96" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G96" s="3"/>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C97" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E97" s="3"/>
+      <c r="F97" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G97" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G63:G64"/>

--- a/相关文档/zsblogs数据库设计.xlsx
+++ b/相关文档/zsblogs数据库设计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="187">
   <si>
     <t>users</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1203,6 +1203,12 @@
   <si>
     <t>创建时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -1628,10 +1634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G97"/>
+  <dimension ref="B2:O97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+      <selection activeCell="J93" sqref="J93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1643,7 +1649,9 @@
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="1"/>
+    <col min="8" max="11" width="8.875" style="1"/>
+    <col min="12" max="12" width="9.125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
@@ -2411,7 +2419,7 @@
       </c>
       <c r="G64" s="11"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C65" s="3" t="s">
         <v>69</v>
       </c>
@@ -2428,7 +2436,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C66" s="3" t="s">
         <v>70</v>
       </c>
@@ -2443,7 +2451,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C67" s="3" t="s">
         <v>72</v>
       </c>
@@ -2458,7 +2466,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C68" s="3" t="s">
         <v>75</v>
       </c>
@@ -2473,7 +2481,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C69" s="3" t="s">
         <v>77</v>
       </c>
@@ -2490,7 +2498,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="N71" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B72" s="1" t="s">
         <v>49</v>
       </c>
@@ -2505,8 +2518,11 @@
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="O72" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B73" s="1" t="s">
         <v>50</v>
       </c>
@@ -2523,8 +2539,11 @@
         <v>83</v>
       </c>
       <c r="G73" s="3"/>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="N73" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C74" s="3" t="s">
         <v>81</v>
       </c>
@@ -2538,8 +2557,11 @@
         <v>84</v>
       </c>
       <c r="G74" s="3"/>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="N74" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C75" s="3" t="s">
         <v>23</v>
       </c>
@@ -2553,8 +2575,11 @@
         <v>85</v>
       </c>
       <c r="G75" s="3"/>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="N75" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C76" s="3" t="s">
         <v>82</v>
       </c>
@@ -2566,8 +2591,21 @@
         <v>86</v>
       </c>
       <c r="G76" s="3"/>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="N76" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="N77" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="N78" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B79" s="9" t="s">
         <v>142</v>
       </c>
@@ -2584,8 +2622,11 @@
         <v>143</v>
       </c>
       <c r="G79" s="3"/>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="N79" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B80" s="9" t="s">
         <v>169</v>
       </c>
@@ -2602,8 +2643,11 @@
         <v>145</v>
       </c>
       <c r="G80" s="3"/>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="O80" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C81" s="7" t="s">
         <v>183</v>
       </c>
@@ -2617,8 +2661,11 @@
         <v>184</v>
       </c>
       <c r="G81" s="6"/>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="N81" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C82" s="7" t="s">
         <v>163</v>
       </c>
@@ -2632,8 +2679,11 @@
         <v>146</v>
       </c>
       <c r="G82" s="3"/>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="N82" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C83" s="7" t="s">
         <v>164</v>
       </c>
@@ -2647,8 +2697,11 @@
         <v>147</v>
       </c>
       <c r="G83" s="3"/>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="N83" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C84" s="7" t="s">
         <v>165</v>
       </c>
@@ -2662,8 +2715,11 @@
       <c r="G84" s="6" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="N84" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C85" s="7" t="s">
         <v>167</v>
       </c>
@@ -2675,8 +2731,11 @@
         <v>151</v>
       </c>
       <c r="G85" s="3"/>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="N85" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C86" s="7" t="s">
         <v>166</v>
       </c>
@@ -2692,8 +2751,11 @@
       <c r="G86" s="6" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="N86" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C87" s="7" t="s">
         <v>168</v>
       </c>
@@ -2707,14 +2769,28 @@
         <v>159</v>
       </c>
       <c r="G87" s="3"/>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="N87" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.15">
       <c r="F88" s="9"/>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="O88" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.15">
       <c r="F89" s="9"/>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="N89" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="N90" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B91" s="9" t="s">
         <v>150</v>
       </c>
@@ -2731,8 +2807,11 @@
         <v>144</v>
       </c>
       <c r="G91" s="3"/>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="N91" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B92" s="9" t="s">
         <v>171</v>
       </c>
@@ -2749,8 +2828,11 @@
         <v>152</v>
       </c>
       <c r="G92" s="3"/>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="N92" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C93" s="6" t="s">
         <v>162</v>
       </c>
@@ -2764,8 +2846,11 @@
         <v>153</v>
       </c>
       <c r="G93" s="3"/>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="N93" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C94" s="6" t="s">
         <v>172</v>
       </c>
@@ -2780,7 +2865,7 @@
       </c>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C95" s="6" t="s">
         <v>173</v>
       </c>
@@ -2797,7 +2882,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C96" s="6" t="s">
         <v>174</v>
       </c>

--- a/相关文档/zsblogs数据库设计.xlsx
+++ b/相关文档/zsblogs数据库设计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="256">
   <si>
     <t>users</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1209,13 +1209,591 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>基金信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规模</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端费率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赎回费率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>用户i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入份额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定投、补仓、赎回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <r>
+      <t>manager</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_rate</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reate_date</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金历史变化表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>fund</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_info</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>und_history</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fund_trade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持有基金表(交易)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i_id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i_id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ime</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ype</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>archar</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成立日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ompany</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金评级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ype</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理费率(1年)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uy_min</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赎回费率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赎回费率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小于1年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于等于1年，小于2年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于2年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellout_rate_one</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellout_rate_three</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ate</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>atetime</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellout_rate_two</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reate_time</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ontinue_date</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>netvalue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uy_money</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uy_number</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1242,6 +1820,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1313,7 +1898,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1324,10 +1909,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1634,17 +2223,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O97"/>
+  <dimension ref="B2:O138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="J93" sqref="J93"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.25" style="1" bestFit="1" customWidth="1"/>
@@ -2400,7 +2988,7 @@
       <c r="F63" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G63" s="10" t="s">
+      <c r="G63" s="11" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2417,7 +3005,7 @@
       <c r="F64" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G64" s="11"/>
+      <c r="G64" s="12"/>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C65" s="3" t="s">
@@ -2897,7 +3485,7 @@
       </c>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C97" s="6" t="s">
         <v>175</v>
       </c>
@@ -2910,9 +3498,416 @@
       </c>
       <c r="G97" s="3"/>
     </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B103" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G103" s="3"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B104" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E104" s="3"/>
+      <c r="F104" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G104" s="3"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C105" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E105" s="3"/>
+      <c r="F105" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G105" s="3"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C106" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E106" s="3"/>
+      <c r="F106" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G106" s="3"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C107" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E107" s="3"/>
+      <c r="F107" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G107" s="3"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C108" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E108" s="3"/>
+      <c r="F108" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G108" s="3"/>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C109" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E109" s="3"/>
+      <c r="F109" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G109" s="3"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C110" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E110" s="3"/>
+      <c r="F110" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G110" s="3"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C111" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E111" s="3"/>
+      <c r="F111" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G111" s="3"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C112" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E112" s="3"/>
+      <c r="F112" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C113" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E113" s="3"/>
+      <c r="F113" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C114" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E114" s="3"/>
+      <c r="F114" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C115" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E115" s="3"/>
+      <c r="F115" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G115" s="3"/>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C116" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E116" s="3"/>
+      <c r="F116" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G116" s="3"/>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F117" s="8"/>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F118" s="8"/>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B120" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G120" s="3"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B121" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G121" s="13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C122" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G122" s="12"/>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C123" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G123" s="3"/>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B127" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G127" s="3"/>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B128" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G128" s="3"/>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C129" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G129" s="3"/>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C130" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G130" s="3"/>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C131" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G131" s="3"/>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C132" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G132" s="3"/>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C133" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B137" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="E137" s="3"/>
+      <c r="F137" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G137" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B138" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G121:G122"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/相关文档/zsblogs数据库设计.xlsx
+++ b/相关文档/zsblogs数据库设计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="258">
   <si>
     <t>users</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1239,120 +1239,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基金编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规模</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端费率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赎回费率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>用户i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买入份额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买入金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定投、补仓、赎回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manager</t>
-  </si>
-  <si>
-    <t>scale</t>
-  </si>
-  <si>
-    <r>
-      <t>manager</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_rate</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>reate_date</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基金历史变化表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1362,135 +1248,101 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>fund</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_info</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>und_history</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fund_trade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持有基金表(交易)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i_id</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i_id</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ime</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_id</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buy_rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ype</t>
-    </r>
+    <t>基金编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规模</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端费率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赎回费率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>用户i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入份额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定投、补仓、赎回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <r>
+      <t>manager</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_rate</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reate_date</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金历史变化表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1506,41 +1358,145 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>nt</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>v</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>archar</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基金类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成立日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
+      <t>d</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>fund</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_info</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>und_history</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fund_trade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持有基金表(交易)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i_id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i_id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ime</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ype</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
     </r>
     <r>
       <rPr>
@@ -1551,17 +1507,41 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ompany</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基金评级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>archar</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成立日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
     </r>
     <r>
       <rPr>
@@ -1572,40 +1552,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ype</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grade</t>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nt</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理费率(1年)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最小购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>b</t>
+      <t>ompany</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金评级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
     </r>
     <r>
       <rPr>
@@ -1616,6 +1573,50 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>ype</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理费率(1年)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>uy_min</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1785,6 +1786,26 @@
         <scheme val="minor"/>
       </rPr>
       <t>uy_number</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涨幅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ate</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1793,7 +1814,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1820,13 +1841,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2226,7 +2240,7 @@
   <dimension ref="B2:O138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+      <selection activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3768,6 +3782,19 @@
       </c>
       <c r="G123" s="3"/>
     </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C124" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E124" s="3"/>
+      <c r="F124" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G124" s="3"/>
+    </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B127" s="9" t="s">
         <v>212</v>
